--- a/medicine/Enfance/Vera_Barclay/Vera_Barclay.xlsx
+++ b/medicine/Enfance/Vera_Barclay/Vera_Barclay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vera Charlesworth Barclay, née le 10 novembre 1893 à Hertford Heath (Angleterre) et morte le 19 septembre 1989 à Sheringham (Angleterre), est une écrivaine britannique et la créatrice du louvetisme. Elle été la collaboratrice de Robert Baden-Powell, le fondateur du scoutisme. 
 Elle a écrit plusieurs ouvrages : livres et manuels de formation pour enfants, , notamment sous les pseudonymes : Vera Charlesworth, Margaret Beech, Hugh Chichester.
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née en Angleterre en 1893 dans une famille de huit enfants, d'un père pasteur, le Révérend Charles W. Barclay, et d'une mère romancière connue, Florence Louisa Charlesworth (1862-1921), Vera Barclay adhère au mouvement scout en 1912 et devient une des premières Scoutmistress. En 1914, elle est un des premiers chefs de meute. Pendant une quinzaine d’années, et plus particulièrement pendant la guerre, elle remplacera ainsi des scoutmestres jusqu’à ce que l’on trouve un homme pour remplir la tâche.
 Elle raconte elle-même en 1915 comment elle a fondé sa première meute à Hertford Heath, au Nord-Est de Londres : un des petits garçons la harcelait quand elle s’occupait de sa troupe scoute : « Mademoiselle, mademoiselle, si les scouts veulent de nous, on est prêt. » Elle écrit : « Quand j’ai vu ces garçons hauts comme trois pommes et dépenaillés me saluer avec trois doigts, j’ai commencé à estimer que quelque chose devait être fait pour eux.» Elle consacre dès lors ses soirées du lundi, mercredi, jeudi et vendredi, ses week-ends et une partie de ses vacances au scoutisme. Elle recrute ensuite sa sœur Angela pour lui succéder à la tête de la meute.
-En 1916, elle est infirmière à l'hôpital de la croix rouge de Netley, près de Portsmouth. Le 24 juin, Baden-Powell organise une réunion à 116 Victoria Street où il présente son projet de branche du mouvement scout pour les garçons de huit à douze ans, les louveteaux[1]. En juillet, il écrit à son ami Rudyard Kipling pour demander la permission d'utiliser son roman Le Livre de la jungle comme inspiration pour un manuel pour les louveteaux[2]. Il persuade Vera de travailler avec lui à rédiger le manuel. Elle rejoint donc l’Équipe Nationale pour s’occuper de la branche louvetisme. Chaque matin, elle retrouve sur son bureau des petites notes de Baden-Powell écrites sur du papier à cigarettes (à cette époque, ce papier était utilisé comme coagulant pour les coupures dues au rasage) que ce dernier rédigeait lors de ses ablutions.
+En 1916, elle est infirmière à l'hôpital de la croix rouge de Netley, près de Portsmouth. Le 24 juin, Baden-Powell organise une réunion à 116 Victoria Street où il présente son projet de branche du mouvement scout pour les garçons de huit à douze ans, les louveteaux. En juillet, il écrit à son ami Rudyard Kipling pour demander la permission d'utiliser son roman Le Livre de la jungle comme inspiration pour un manuel pour les louveteaux. Il persuade Vera de travailler avec lui à rédiger le manuel. Elle rejoint donc l’Équipe Nationale pour s’occuper de la branche louvetisme. Chaque matin, elle retrouve sur son bureau des petites notes de Baden-Powell écrites sur du papier à cigarettes (à cette époque, ce papier était utilisé comme coagulant pour les coupures dues au rasage) que ce dernier rédigeait lors de ses ablutions.
 Vera Barclay évoque avec humour que ce manuel ne sera pas pour « ces personnes solennelles qui ont attendu un épais manuel décrivant la façon d’instruire un enfant de huit à douze ans ; c'est-à-dire, comment le former jusqu'à ce que le transformer en petite machine stupide ; comment écraser son esprit désireux d’apprendre sous une charge de cauchemar de précision scolaire, ces gens seront péniblement déçus.» Toutefois, elle tient à harmoniser les différentes pratiques, et se déplacera dans pas moins de 500 meutes pour apprendre le grand hurlement aux louveteaux.
 Convertie au catholicisme, elle œuvre énormément pour lever les méfiances que le clergé conserve à l’encontre du mouvement scout. Elle obtiendra en Angleterre l’appui du cardinal Bourne, permettant ainsi un accroissement significatif de l’effectif en Angleterre, mais aussi et surtout en France (elle parlait parfaitement le français, appris dans l'enfance) : elle décerne au Père Sevin le titre d’« Akela leader » permettant à ce dernier de former à son tour des chefs de meute. Elle séjournera d’ailleurs plusieurs fois à Chamarande en 1923, 1925 et 1927.
 En septembre 1920, elle fait ses adieux à l’équipe nationale anglaise dans un article de la gazette du siège social en annonçant son entrée chez les religieuses de la Charité (de Saint Vincent de Paul). Dans la même édition, Robert Baden-Powell la remercie chaleureusement en lui décernant le « Loup d'argent », la plus haute récompense du scoutisme, pour services rendus.
